--- a/mbs-perturbation/mega/svm/mega-svm-default-results.xlsx
+++ b/mbs-perturbation/mega/svm/mega-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2897196261682243</v>
+        <v>0.3763440860215054</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.4964539007092198</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5766689068100359</v>
+        <v>0.760024641577061</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5507246376811594</v>
+        <v>0.6419753086419753</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9826388888888888</v>
+        <v>0.8373655913978495</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="C4" t="n">
-        <v>0.125</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2068965517241379</v>
+        <v>0.8712871287128713</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9559684684684684</v>
+        <v>0.9559684684684685</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1914893617021277</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3214285714285715</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.6397849462365592</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
         <v>0.0425531914893617</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08163265306122448</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6014070006863419</v>
+        <v>0.4132349576755891</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7588963061860258</v>
+        <v>0.5712227361610301</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2801418439716312</v>
+        <v>0.5183510638297872</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3121364827790186</v>
+        <v>0.4899699676545321</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7631215992073062</v>
+        <v>0.7212757210711055</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/mega/svm/mega-svm-default-results.xlsx
+++ b/mbs-perturbation/mega/svm/mega-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3763440860215054</v>
+        <v>0.316546762589928</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7291666666666666</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4964539007092198</v>
+        <v>0.4808743169398906</v>
       </c>
       <c r="E2" t="n">
-        <v>0.760024641577061</v>
+        <v>0.7292227003765466</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6419753086419753</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8373655913978495</v>
+        <v>0.5802850995158687</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8301886792452831</v>
+        <v>0.9024390243902439</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8712871287128713</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9559684684684685</v>
+        <v>0.9759185358469795</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3617021276595745</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3617021276595745</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3617021276595745</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6397849462365592</v>
+        <v>0.5161689830741709</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0425531914893617</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07843137254901961</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4132349576755891</v>
+        <v>0.8182193477363423</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5712227361610301</v>
+        <v>0.7728294154605505</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5183510638297872</v>
+        <v>0.5699788583509513</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4899699676545321</v>
+        <v>0.541344931415189</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7212757210711055</v>
+        <v>0.7239629333099816</v>
       </c>
     </row>
   </sheetData>
